--- a/data/case1/9/Plm1_6.xlsx
+++ b/data/case1/9/Plm1_6.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.217281253129741</v>
+        <v>-0.26762998866126964</v>
       </c>
       <c r="B1" s="0">
-        <v>0.21686915829683073</v>
+        <v>0.26699348880082141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17075653865712503</v>
+        <v>-0.22088144599350557</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16929215520731056</v>
+        <v>0.21840902312648325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.04199619778972874</v>
+        <v>-0.075634033336577033</v>
       </c>
       <c r="B3" s="0">
-        <v>0.041851699592839964</v>
+        <v>0.075283142809432491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10385036658959734</v>
+        <v>-0.1372811416864721</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1035047426216984</v>
+        <v>0.13662918772163124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.097504742714519921</v>
+        <v>-0.13062918787434175</v>
       </c>
       <c r="B5" s="0">
-        <v>0.096842430159975734</v>
+        <v>0.12933922137597698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.061710902632724274</v>
+        <v>-0.075524307953167558</v>
       </c>
       <c r="B6" s="0">
-        <v>0.06165891268807</v>
+        <v>0.075442440315649062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.041658912803137937</v>
+        <v>-0.055442440506327628</v>
       </c>
       <c r="B7" s="0">
-        <v>0.041572666015593285</v>
+        <v>0.055278943329396313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.021572666131314477</v>
+        <v>-0.035278943521568351</v>
       </c>
       <c r="B8" s="0">
-        <v>0.021541168920274245</v>
+        <v>0.03518681731188078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.01554116901642999</v>
+        <v>-0.029186817472338866</v>
       </c>
       <c r="B9" s="0">
-        <v>0.015524561647192847</v>
+        <v>0.029122999708006247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0095245617437313967</v>
+        <v>-0.023122999869684691</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0095245162668931016</v>
+        <v>0.023117164065332929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0050245163613027444</v>
+        <v>-0.018617164223481808</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0050233649264228575</v>
+        <v>0.018609141039824806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0009766349770270466</v>
+        <v>-0.012609141201733287</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.00098535657624099215</v>
+        <v>0.012593231023850127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0069853564797179857</v>
+        <v>-0.0065932311864820292</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0069930069939951878</v>
+        <v>0.006591007065518184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027083475617625474</v>
+        <v>-0.027085958538181742</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027051895034373885</v>
+        <v>0.027053447031449629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051895131172671</v>
+        <v>-0.02105344719483071</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027009350150117</v>
+        <v>0.021027834150496361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027009447289075</v>
+        <v>-0.015027834314476962</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004607458235508</v>
+        <v>0.015004680154388161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090046075558163352</v>
+        <v>-0.0090046803191325964</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998979930496</v>
+        <v>0.0089999998279477467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03611261973527391</v>
+        <v>-0.036112042962649582</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036097251390419416</v>
+        <v>0.036097232238802235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097251484550888</v>
+        <v>-0.027097232391928294</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027014224493124406</v>
+        <v>0.027014119460860186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014224588144501</v>
+        <v>-0.018014119615438418</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004335862864096</v>
+        <v>0.018004334748187745</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043359580187499</v>
+        <v>-0.0090043349029933495</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999999047343238</v>
+        <v>0.0089999998450052132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.11829595751349409</v>
+        <v>-0.13377498994685055</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11777889083239934</v>
+        <v>0.13309755207294138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084633754304297426</v>
+        <v>-0.084637976623031186</v>
       </c>
       <c r="B23" s="0">
-        <v>0.08412681898855201</v>
+        <v>0.084127636165046482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126819134680638</v>
+        <v>-0.042127636404988955</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999853035597</v>
+        <v>0.041999999758678186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.029131527621903075</v>
+        <v>-0.047814913579795615</v>
       </c>
       <c r="B25" s="0">
-        <v>0.029107803403000787</v>
+        <v>0.047749557759448891</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.023107803497691037</v>
+        <v>-0.041749557916741509</v>
       </c>
       <c r="B26" s="0">
-        <v>0.02308273197777666</v>
+        <v>0.041671722343597395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.017082732072683626</v>
+        <v>-0.035671722501292358</v>
       </c>
       <c r="B27" s="0">
-        <v>0.017013157583543048</v>
+        <v>0.035427137465199099</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.011013157678870122</v>
+        <v>-0.029427137624447042</v>
       </c>
       <c r="B28" s="0">
-        <v>0.010974693666653046</v>
+        <v>0.029272442603957671</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062515958715140485</v>
+        <v>-0.062530072692716487</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062164048361280422</v>
+        <v>0.062168419032403222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042164048477645544</v>
+        <v>-0.042168419226953358</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0420200593366169</v>
+        <v>0.042020360288905767</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020059446808631</v>
+        <v>-0.027020360473331451</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027001068877430257</v>
+        <v>0.027001011049820889</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060010689964062891</v>
+        <v>-0.0060010112487773881</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999999025173167</v>
+        <v>0.0059999998364794749</v>
       </c>
     </row>
   </sheetData>
